--- a/django_project/geosight/harvester/tests/test_harvesters/fixtures/excel_wide_test.xlsx
+++ b/django_project/geosight/harvester/tests/test_harvesters/fixtures/excel_wide_test.xlsx
@@ -20,15 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t xml:space="preserve">geom_code</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicator 1</t>
+    <t xml:space="preserve">IND1</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicator 2</t>
+    <t xml:space="preserve">IND2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND3</t>
   </si>
   <si>
     <t xml:space="preserve">column_name_month</t>
@@ -119,13 +122,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -145,15 +152,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="18.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -166,65 +174,76 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>2020</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="C3" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>2020</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="C4" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
